--- a/data/trans_camb/P16B08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,9</t>
+          <t>0,0; 35,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 16,02</t>
+          <t>-29,02; 15,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,74; -5,12</t>
+          <t>-40,3; -5,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 0,0</t>
+          <t>-39,94; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 11,63</t>
+          <t>-15,44; 11,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 9,8</t>
+          <t>-22,1; 9,37</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,27</t>
+          <t>0,0; 56,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 19,39</t>
+          <t>-31,74; 18,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,74; -5,12</t>
+          <t>-40,3; -5,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 0,0</t>
+          <t>-39,94; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 13,73</t>
+          <t>-15,86; 13,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 11,2</t>
+          <t>-23,58; 10,29</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 7,3</t>
+          <t>-18,15; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,13</t>
+          <t>0,0; 17,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 10,03</t>
+          <t>-5,19; 10,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,93</t>
+          <t>0,0; 17,35</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 7,85</t>
+          <t>-18,25; 7,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,8</t>
+          <t>0,0; 21,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 11,15</t>
+          <t>-5,19; 12,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,19</t>
+          <t>0,0; 20,99</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 0,0</t>
+          <t>-38,16; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,0</t>
+          <t>-19,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 0,0</t>
+          <t>-38,16; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,0</t>
+          <t>-19,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,27</t>
+          <t>0,0; 36,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 27,99</t>
+          <t>-11,26; 27,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,81</t>
+          <t>0,0; 16,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,37</t>
+          <t>0,0; 16,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 20,79</t>
+          <t>1,69; 23,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 18,59</t>
+          <t>-2,07; 18,97</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,0</t>
+          <t>0,0; 56,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 41,9</t>
+          <t>-11,34; 41,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,71</t>
+          <t>0,0; 19,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,57</t>
+          <t>0,0; 19,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 26,22</t>
+          <t>1,71; 30,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 23,53</t>
+          <t>-2,09; 23,5</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,08</t>
+          <t>0,0; 67,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,74</t>
+          <t>0,0; 67,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 0,0</t>
+          <t>-20,1; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 0,0</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 12,61</t>
+          <t>-8,54; 12,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 14,23</t>
+          <t>-5,56; 14,11</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 234,2</t>
+          <t>0,0; 209,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 219,36</t>
+          <t>0,0; 209,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 0,0</t>
+          <t>-20,1; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 0,0</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,48</t>
+          <t>-8,55; 14,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 16,85</t>
+          <t>-5,64; 16,1</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 0,0</t>
+          <t>-55,74; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>-9,43; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -1,48</t>
+          <t>-15,26; -1,43</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 0,0</t>
+          <t>-55,74; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,0</t>
+          <t>-9,43; 0,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -1,48</t>
+          <t>-15,26; -1,43</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>2,77; 19,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>-5,76; 13,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>-5,09; 1,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,36</t>
+          <t>-5,58; 1,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>-0,79; 7,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,11</t>
+          <t>-4,11; 4,59</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,18</t>
+          <t>2,85; 24,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,46</t>
+          <t>-5,87; 16,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,67</t>
+          <t>-5,11; 1,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 1,41</t>
+          <t>-5,66; 1,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,63</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,43</t>
+          <t>-4,19; 4,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
